--- a/CumulativeTestsByTypeByCounty/2022-01-25.xlsx
+++ b/CumulativeTestsByTypeByCounty/2022-01-25.xlsx
@@ -1074,16 +1074,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>82034</v>
+        <v>82147</v>
       </c>
       <c r="C2" s="4">
         <v>2088</v>
       </c>
       <c r="D2" s="4">
-        <v>42138</v>
+        <v>42377</v>
       </c>
       <c r="E2" s="4">
-        <v>126260</v>
+        <v>126612</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1091,16 +1091,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>6563</v>
+        <v>6596</v>
       </c>
       <c r="C3" s="4">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D3" s="4">
-        <v>6884</v>
+        <v>6952</v>
       </c>
       <c r="E3" s="4">
-        <v>13785</v>
+        <v>13887</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1108,16 +1108,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>83606</v>
+        <v>83761</v>
       </c>
       <c r="C4" s="4">
         <v>4494</v>
       </c>
       <c r="D4" s="4">
-        <v>83980</v>
+        <v>84471</v>
       </c>
       <c r="E4" s="4">
-        <v>172080</v>
+        <v>172726</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1125,16 +1125,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>17710</v>
+        <v>17833</v>
       </c>
       <c r="C5" s="4">
         <v>2919</v>
       </c>
       <c r="D5" s="4">
-        <v>14681</v>
+        <v>14711</v>
       </c>
       <c r="E5" s="4">
-        <v>35310</v>
+        <v>35463</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1142,16 +1142,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>4935</v>
+        <v>4945</v>
       </c>
       <c r="C6" s="4">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D6" s="4">
-        <v>1903</v>
+        <v>1917</v>
       </c>
       <c r="E6" s="4">
-        <v>7720</v>
+        <v>7745</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1159,16 +1159,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="C7" s="4">
         <v>344</v>
       </c>
       <c r="D7" s="4">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="E7" s="4">
-        <v>3055</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1176,16 +1176,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>115379</v>
+        <v>116254</v>
       </c>
       <c r="C8" s="4">
         <v>1475</v>
       </c>
       <c r="D8" s="4">
-        <v>17290</v>
+        <v>17312</v>
       </c>
       <c r="E8" s="4">
-        <v>134144</v>
+        <v>135041</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1193,16 +1193,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>31634</v>
+        <v>31727</v>
       </c>
       <c r="C9" s="4">
         <v>1884</v>
       </c>
       <c r="D9" s="4">
-        <v>6091</v>
+        <v>6134</v>
       </c>
       <c r="E9" s="4">
-        <v>39609</v>
+        <v>39745</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1210,16 +1210,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>2808</v>
+        <v>2812</v>
       </c>
       <c r="C10" s="4">
         <v>99</v>
       </c>
       <c r="D10" s="4">
-        <v>2054</v>
+        <v>2056</v>
       </c>
       <c r="E10" s="4">
-        <v>4961</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1227,16 +1227,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>15470</v>
+        <v>15533</v>
       </c>
       <c r="C11" s="4">
         <v>851</v>
       </c>
       <c r="D11" s="4">
-        <v>9455</v>
+        <v>9488</v>
       </c>
       <c r="E11" s="4">
-        <v>25776</v>
+        <v>25872</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1244,16 +1244,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>105172</v>
+        <v>105427</v>
       </c>
       <c r="C12" s="4">
         <v>2600</v>
       </c>
       <c r="D12" s="4">
-        <v>47224</v>
+        <v>47620</v>
       </c>
       <c r="E12" s="4">
-        <v>154996</v>
+        <v>155647</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1261,16 +1261,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="C13" s="4">
         <v>596</v>
       </c>
       <c r="D13" s="4">
-        <v>4154</v>
+        <v>4162</v>
       </c>
       <c r="E13" s="4">
-        <v>7063</v>
+        <v>7072</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1278,16 +1278,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>55419</v>
+        <v>55476</v>
       </c>
       <c r="C14" s="4">
-        <v>8363</v>
+        <v>8383</v>
       </c>
       <c r="D14" s="4">
-        <v>25626</v>
+        <v>25696</v>
       </c>
       <c r="E14" s="4">
-        <v>89408</v>
+        <v>89555</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1295,16 +1295,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>441675</v>
+        <v>443550</v>
       </c>
       <c r="C15" s="4">
-        <v>15903</v>
+        <v>15904</v>
       </c>
       <c r="D15" s="4">
-        <v>108391</v>
+        <v>108999</v>
       </c>
       <c r="E15" s="4">
-        <v>565969</v>
+        <v>568453</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1312,16 +1312,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>4600842</v>
+        <v>4619068</v>
       </c>
       <c r="C16" s="4">
-        <v>77636</v>
+        <v>77680</v>
       </c>
       <c r="D16" s="4">
-        <v>697108</v>
+        <v>700015</v>
       </c>
       <c r="E16" s="4">
-        <v>5375586</v>
+        <v>5396763</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1329,16 +1329,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>9832</v>
+        <v>9849</v>
       </c>
       <c r="C17" s="4">
         <v>547</v>
       </c>
       <c r="D17" s="4">
-        <v>5423</v>
+        <v>5484</v>
       </c>
       <c r="E17" s="4">
-        <v>15802</v>
+        <v>15880</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1346,16 +1346,16 @@
         <v>21</v>
       </c>
       <c r="B18" s="4">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C18" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E18" s="4">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
@@ -1363,16 +1363,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>13151</v>
+        <v>13213</v>
       </c>
       <c r="C19" s="4">
         <v>604</v>
       </c>
       <c r="D19" s="4">
-        <v>9965</v>
+        <v>9985</v>
       </c>
       <c r="E19" s="4">
-        <v>23720</v>
+        <v>23802</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1380,16 +1380,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>93676</v>
+        <v>93803</v>
       </c>
       <c r="C20" s="4">
         <v>10664</v>
       </c>
       <c r="D20" s="4">
-        <v>40296</v>
+        <v>40368</v>
       </c>
       <c r="E20" s="4">
-        <v>144636</v>
+        <v>144835</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1397,16 +1397,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>632305</v>
+        <v>633868</v>
       </c>
       <c r="C21" s="4">
-        <v>26666</v>
+        <v>26681</v>
       </c>
       <c r="D21" s="4">
-        <v>129206</v>
+        <v>129752</v>
       </c>
       <c r="E21" s="4">
-        <v>788177</v>
+        <v>790301</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1414,16 +1414,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>482927</v>
+        <v>483544</v>
       </c>
       <c r="C22" s="4">
-        <v>13152</v>
+        <v>13165</v>
       </c>
       <c r="D22" s="4">
-        <v>54861</v>
+        <v>54971</v>
       </c>
       <c r="E22" s="4">
-        <v>550940</v>
+        <v>551680</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1431,16 +1431,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>9474</v>
+        <v>9479</v>
       </c>
       <c r="C23" s="4">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D23" s="4">
-        <v>3581</v>
+        <v>3585</v>
       </c>
       <c r="E23" s="4">
-        <v>13231</v>
+        <v>13241</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1448,7 +1448,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="C24" s="4">
         <v>142</v>
@@ -1457,7 +1457,7 @@
         <v>216</v>
       </c>
       <c r="E24" s="4">
-        <v>1890</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1465,16 +1465,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>25928</v>
+        <v>25948</v>
       </c>
       <c r="C25" s="4">
-        <v>1892</v>
+        <v>1894</v>
       </c>
       <c r="D25" s="4">
-        <v>6935</v>
+        <v>6942</v>
       </c>
       <c r="E25" s="4">
-        <v>34755</v>
+        <v>34784</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1482,16 +1482,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>28905</v>
+        <v>28995</v>
       </c>
       <c r="C26" s="4">
         <v>1263</v>
       </c>
       <c r="D26" s="4">
-        <v>47055</v>
+        <v>47157</v>
       </c>
       <c r="E26" s="4">
-        <v>77223</v>
+        <v>77415</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1499,16 +1499,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>27959</v>
+        <v>28008</v>
       </c>
       <c r="C27" s="4">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D27" s="4">
-        <v>7404</v>
+        <v>7438</v>
       </c>
       <c r="E27" s="4">
-        <v>36219</v>
+        <v>36304</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1516,16 +1516,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>61809</v>
+        <v>61960</v>
       </c>
       <c r="C28" s="4">
         <v>2482</v>
       </c>
       <c r="D28" s="4">
-        <v>15732</v>
+        <v>15766</v>
       </c>
       <c r="E28" s="4">
-        <v>80023</v>
+        <v>80208</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1533,16 +1533,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>66901</v>
+        <v>67033</v>
       </c>
       <c r="C29" s="4">
         <v>2258</v>
       </c>
       <c r="D29" s="4">
-        <v>19026</v>
+        <v>19062</v>
       </c>
       <c r="E29" s="4">
-        <v>88185</v>
+        <v>88353</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1550,16 +1550,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>22198</v>
+        <v>22211</v>
       </c>
       <c r="C30" s="4">
         <v>2313</v>
       </c>
       <c r="D30" s="4">
-        <v>15963</v>
+        <v>16129</v>
       </c>
       <c r="E30" s="4">
-        <v>40474</v>
+        <v>40653</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>7564</v>
+        <v>7578</v>
       </c>
       <c r="C31" s="4">
         <v>343</v>
       </c>
       <c r="D31" s="4">
-        <v>12821</v>
+        <v>12878</v>
       </c>
       <c r="E31" s="4">
-        <v>20728</v>
+        <v>20799</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1584,16 +1584,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>471356</v>
+        <v>472900</v>
       </c>
       <c r="C32" s="4">
-        <v>11810</v>
+        <v>11811</v>
       </c>
       <c r="D32" s="4">
-        <v>163072</v>
+        <v>163868</v>
       </c>
       <c r="E32" s="4">
-        <v>646238</v>
+        <v>648579</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1601,16 +1601,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>10241</v>
+        <v>10258</v>
       </c>
       <c r="C33" s="4">
         <v>555</v>
       </c>
       <c r="D33" s="4">
-        <v>4293</v>
+        <v>4313</v>
       </c>
       <c r="E33" s="4">
-        <v>15089</v>
+        <v>15126</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1618,16 +1618,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>3269</v>
+        <v>3293</v>
       </c>
       <c r="C34" s="4">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D34" s="4">
-        <v>1681</v>
+        <v>1688</v>
       </c>
       <c r="E34" s="4">
-        <v>6087</v>
+        <v>6119</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1635,16 +1635,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>20617</v>
+        <v>20665</v>
       </c>
       <c r="C35" s="4">
         <v>3374</v>
       </c>
       <c r="D35" s="4">
-        <v>14228</v>
+        <v>14248</v>
       </c>
       <c r="E35" s="4">
-        <v>38219</v>
+        <v>38287</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1652,16 +1652,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>8863</v>
+        <v>8869</v>
       </c>
       <c r="C36" s="4">
         <v>446</v>
       </c>
       <c r="D36" s="4">
-        <v>3855</v>
+        <v>3957</v>
       </c>
       <c r="E36" s="4">
-        <v>13164</v>
+        <v>13272</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1669,16 +1669,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>15268</v>
+        <v>15302</v>
       </c>
       <c r="C37" s="4">
         <v>919</v>
       </c>
       <c r="D37" s="4">
-        <v>3914</v>
+        <v>3926</v>
       </c>
       <c r="E37" s="4">
-        <v>20101</v>
+        <v>20147</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1686,16 +1686,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>39461</v>
+        <v>39521</v>
       </c>
       <c r="C38" s="4">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D38" s="4">
-        <v>34420</v>
+        <v>34561</v>
       </c>
       <c r="E38" s="4">
-        <v>75196</v>
+        <v>75398</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1703,16 +1703,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>7920</v>
+        <v>7961</v>
       </c>
       <c r="C39" s="4">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D39" s="4">
-        <v>6685</v>
+        <v>6689</v>
       </c>
       <c r="E39" s="4">
-        <v>15082</v>
+        <v>15128</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1720,16 +1720,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>7146</v>
+        <v>7157</v>
       </c>
       <c r="C40" s="4">
         <v>728</v>
       </c>
       <c r="D40" s="4">
-        <v>6123</v>
+        <v>6171</v>
       </c>
       <c r="E40" s="4">
-        <v>13997</v>
+        <v>14056</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1737,16 +1737,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>1899</v>
+        <v>1912</v>
       </c>
       <c r="C41" s="4">
         <v>29</v>
       </c>
       <c r="D41" s="4">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E41" s="4">
-        <v>2431</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1754,16 +1754,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="C42" s="4">
         <v>68</v>
       </c>
       <c r="D42" s="4">
-        <v>3684</v>
+        <v>3698</v>
       </c>
       <c r="E42" s="4">
-        <v>6802</v>
+        <v>6817</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1771,16 +1771,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>4823</v>
+        <v>4827</v>
       </c>
       <c r="C43" s="4">
         <v>177</v>
       </c>
       <c r="D43" s="4">
-        <v>5546</v>
+        <v>5570</v>
       </c>
       <c r="E43" s="4">
-        <v>10546</v>
+        <v>10574</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1788,16 +1788,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>1744848</v>
+        <v>1752534</v>
       </c>
       <c r="C44" s="4">
-        <v>113793</v>
+        <v>115336</v>
       </c>
       <c r="D44" s="4">
-        <v>358693</v>
+        <v>361747</v>
       </c>
       <c r="E44" s="4">
-        <v>2217334</v>
+        <v>2229617</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1805,7 +1805,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>2113</v>
+        <v>2122</v>
       </c>
       <c r="C45" s="4">
         <v>146</v>
@@ -1814,7 +1814,7 @@
         <v>3493</v>
       </c>
       <c r="E45" s="4">
-        <v>5752</v>
+        <v>5761</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1822,16 +1822,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>20407</v>
+        <v>20435</v>
       </c>
       <c r="C46" s="4">
         <v>1223</v>
       </c>
       <c r="D46" s="4">
-        <v>11100</v>
+        <v>11126</v>
       </c>
       <c r="E46" s="4">
-        <v>32730</v>
+        <v>32784</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1839,16 +1839,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>206030</v>
+        <v>206462</v>
       </c>
       <c r="C47" s="4">
         <v>12945</v>
       </c>
       <c r="D47" s="4">
-        <v>58416</v>
+        <v>58623</v>
       </c>
       <c r="E47" s="4">
-        <v>277391</v>
+        <v>278030</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1856,16 +1856,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>12124</v>
+        <v>12148</v>
       </c>
       <c r="C48" s="4">
         <v>383</v>
       </c>
       <c r="D48" s="4">
-        <v>7045</v>
+        <v>7074</v>
       </c>
       <c r="E48" s="4">
-        <v>19552</v>
+        <v>19605</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1879,10 +1879,10 @@
         <v>38</v>
       </c>
       <c r="D49" s="4">
-        <v>4968</v>
+        <v>4973</v>
       </c>
       <c r="E49" s="4">
-        <v>7541</v>
+        <v>7546</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1890,16 +1890,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>34397</v>
+        <v>34453</v>
       </c>
       <c r="C50" s="4">
-        <v>2374</v>
+        <v>2378</v>
       </c>
       <c r="D50" s="4">
-        <v>13840</v>
+        <v>13983</v>
       </c>
       <c r="E50" s="4">
-        <v>50611</v>
+        <v>50814</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1907,16 +1907,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>143343</v>
+        <v>143610</v>
       </c>
       <c r="C51" s="4">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="D51" s="4">
-        <v>32560</v>
+        <v>32755</v>
       </c>
       <c r="E51" s="4">
-        <v>178377</v>
+        <v>178840</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1924,7 +1924,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="C52" s="4">
         <v>75</v>
@@ -1933,7 +1933,7 @@
         <v>1079</v>
       </c>
       <c r="E52" s="4">
-        <v>2569</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1941,16 +1941,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>5042</v>
+        <v>5044</v>
       </c>
       <c r="C53" s="4">
         <v>96</v>
       </c>
       <c r="D53" s="4">
-        <v>4451</v>
+        <v>4478</v>
       </c>
       <c r="E53" s="4">
-        <v>9589</v>
+        <v>9618</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1958,16 +1958,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C54" s="4">
         <v>27</v>
       </c>
       <c r="D54" s="4">
-        <v>5405</v>
+        <v>5452</v>
       </c>
       <c r="E54" s="4">
-        <v>6672</v>
+        <v>6720</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1975,16 +1975,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>4016</v>
+        <v>4058</v>
       </c>
       <c r="C55" s="4">
         <v>76</v>
       </c>
       <c r="D55" s="4">
-        <v>4168</v>
+        <v>4183</v>
       </c>
       <c r="E55" s="4">
-        <v>8260</v>
+        <v>8317</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1992,16 +1992,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>3021</v>
+        <v>3022</v>
       </c>
       <c r="C56" s="4">
         <v>42</v>
       </c>
       <c r="D56" s="4">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E56" s="4">
-        <v>3507</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2009,16 +2009,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>3995</v>
+        <v>4017</v>
       </c>
       <c r="C57" s="4">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="D57" s="4">
-        <v>3983</v>
+        <v>3984</v>
       </c>
       <c r="E57" s="4">
-        <v>8563</v>
+        <v>8599</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2026,16 +2026,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>4183570</v>
+        <v>4193759</v>
       </c>
       <c r="C58" s="4">
-        <v>170168</v>
+        <v>170609</v>
       </c>
       <c r="D58" s="4">
-        <v>702617</v>
+        <v>706763</v>
       </c>
       <c r="E58" s="4">
-        <v>5056355</v>
+        <v>5071131</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2043,16 +2043,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>12126</v>
+        <v>12147</v>
       </c>
       <c r="C59" s="4">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D59" s="4">
-        <v>6390</v>
+        <v>6436</v>
       </c>
       <c r="E59" s="4">
-        <v>19130</v>
+        <v>19199</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2060,16 +2060,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>16978</v>
+        <v>17040</v>
       </c>
       <c r="C60" s="4">
         <v>639</v>
       </c>
       <c r="D60" s="4">
-        <v>8174</v>
+        <v>8179</v>
       </c>
       <c r="E60" s="4">
-        <v>25791</v>
+        <v>25858</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2077,16 +2077,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>8498</v>
+        <v>8531</v>
       </c>
       <c r="C61" s="4">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D61" s="4">
-        <v>7161</v>
+        <v>7178</v>
       </c>
       <c r="E61" s="4">
-        <v>16960</v>
+        <v>17011</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2094,16 +2094,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>3287</v>
+        <v>3299</v>
       </c>
       <c r="C62" s="4">
         <v>261</v>
       </c>
       <c r="D62" s="4">
-        <v>3428</v>
+        <v>3433</v>
       </c>
       <c r="E62" s="4">
-        <v>6976</v>
+        <v>6993</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2111,16 +2111,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>1028131</v>
+        <v>1031133</v>
       </c>
       <c r="C63" s="4">
-        <v>82844</v>
+        <v>83207</v>
       </c>
       <c r="D63" s="4">
-        <v>289906</v>
+        <v>291534</v>
       </c>
       <c r="E63" s="4">
-        <v>1400881</v>
+        <v>1405874</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2128,7 +2128,7 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="C64" s="4">
         <v>22</v>
@@ -2137,7 +2137,7 @@
         <v>1188</v>
       </c>
       <c r="E64" s="4">
-        <v>2133</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2145,16 +2145,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>32520</v>
+        <v>32573</v>
       </c>
       <c r="C65" s="4">
         <v>137</v>
       </c>
       <c r="D65" s="4">
-        <v>43961</v>
+        <v>44011</v>
       </c>
       <c r="E65" s="4">
-        <v>76618</v>
+        <v>76721</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2162,16 +2162,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>2238</v>
+        <v>2259</v>
       </c>
       <c r="C66" s="4">
         <v>504</v>
       </c>
       <c r="D66" s="4">
-        <v>2387</v>
+        <v>2394</v>
       </c>
       <c r="E66" s="4">
-        <v>5129</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2179,16 +2179,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>25792</v>
+        <v>25805</v>
       </c>
       <c r="C67" s="4">
-        <v>3452</v>
+        <v>3456</v>
       </c>
       <c r="D67" s="4">
-        <v>12830</v>
+        <v>12868</v>
       </c>
       <c r="E67" s="4">
-        <v>42074</v>
+        <v>42129</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2196,16 +2196,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>8032</v>
+        <v>8058</v>
       </c>
       <c r="C68" s="4">
         <v>534</v>
       </c>
       <c r="D68" s="4">
-        <v>9801</v>
+        <v>9811</v>
       </c>
       <c r="E68" s="4">
-        <v>18367</v>
+        <v>18403</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2213,16 +2213,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>102316</v>
+        <v>102636</v>
       </c>
       <c r="C69" s="4">
-        <v>6530</v>
+        <v>6531</v>
       </c>
       <c r="D69" s="4">
-        <v>74339</v>
+        <v>75100</v>
       </c>
       <c r="E69" s="4">
-        <v>183185</v>
+        <v>184267</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2230,7 +2230,7 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C70" s="4">
         <v>44</v>
@@ -2239,7 +2239,7 @@
         <v>987</v>
       </c>
       <c r="E70" s="4">
-        <v>2541</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2247,16 +2247,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>1369204</v>
+        <v>1379491</v>
       </c>
       <c r="C71" s="4">
-        <v>23475</v>
+        <v>23477</v>
       </c>
       <c r="D71" s="4">
-        <v>647394</v>
+        <v>649066</v>
       </c>
       <c r="E71" s="4">
-        <v>2040073</v>
+        <v>2052034</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2264,16 +2264,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>274326</v>
+        <v>274955</v>
       </c>
       <c r="C72" s="4">
-        <v>9776</v>
+        <v>9787</v>
       </c>
       <c r="D72" s="4">
-        <v>62582</v>
+        <v>62913</v>
       </c>
       <c r="E72" s="4">
-        <v>346684</v>
+        <v>347655</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2281,16 +2281,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>35498</v>
+        <v>35581</v>
       </c>
       <c r="C73" s="4">
         <v>2127</v>
       </c>
       <c r="D73" s="4">
-        <v>15321</v>
+        <v>15396</v>
       </c>
       <c r="E73" s="4">
-        <v>52946</v>
+        <v>53104</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2298,16 +2298,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>19340</v>
+        <v>19371</v>
       </c>
       <c r="C74" s="4">
         <v>491</v>
       </c>
       <c r="D74" s="4">
-        <v>10576</v>
+        <v>10656</v>
       </c>
       <c r="E74" s="4">
-        <v>30407</v>
+        <v>30518</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2315,16 +2315,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>46583</v>
+        <v>46700</v>
       </c>
       <c r="C75" s="4">
-        <v>1153</v>
+        <v>1158</v>
       </c>
       <c r="D75" s="4">
-        <v>12857</v>
+        <v>12892</v>
       </c>
       <c r="E75" s="4">
-        <v>60593</v>
+        <v>60750</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2332,16 +2332,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>24639</v>
+        <v>24669</v>
       </c>
       <c r="C76" s="4">
         <v>1047</v>
       </c>
       <c r="D76" s="4">
-        <v>8257</v>
+        <v>8314</v>
       </c>
       <c r="E76" s="4">
-        <v>33943</v>
+        <v>34030</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2349,16 +2349,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="C77" s="4">
         <v>44</v>
       </c>
       <c r="D77" s="4">
-        <v>826</v>
+        <v>838</v>
       </c>
       <c r="E77" s="4">
-        <v>2667</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2366,16 +2366,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>5355</v>
+        <v>5366</v>
       </c>
       <c r="C78" s="4">
         <v>176</v>
       </c>
       <c r="D78" s="4">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="E78" s="4">
-        <v>6478</v>
+        <v>6495</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2383,16 +2383,16 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C79" s="4">
         <v>166</v>
       </c>
       <c r="D79" s="4">
-        <v>1975</v>
+        <v>1986</v>
       </c>
       <c r="E79" s="4">
-        <v>2880</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2400,16 +2400,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>1293936</v>
+        <v>1297415</v>
       </c>
       <c r="C80" s="4">
-        <v>51649</v>
+        <v>51669</v>
       </c>
       <c r="D80" s="4">
-        <v>185359</v>
+        <v>186354</v>
       </c>
       <c r="E80" s="4">
-        <v>1530944</v>
+        <v>1535438</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2417,16 +2417,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>7687</v>
+        <v>7705</v>
       </c>
       <c r="C81" s="4">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D81" s="4">
-        <v>2020</v>
+        <v>2027</v>
       </c>
       <c r="E81" s="4">
-        <v>10321</v>
+        <v>10347</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2434,16 +2434,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>25379</v>
+        <v>25474</v>
       </c>
       <c r="C82" s="4">
         <v>853</v>
       </c>
       <c r="D82" s="4">
-        <v>21689</v>
+        <v>21809</v>
       </c>
       <c r="E82" s="4">
-        <v>47921</v>
+        <v>48136</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2451,16 +2451,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>35189</v>
+        <v>35271</v>
       </c>
       <c r="C83" s="4">
         <v>581</v>
       </c>
       <c r="D83" s="4">
-        <v>10027</v>
+        <v>10032</v>
       </c>
       <c r="E83" s="4">
-        <v>45797</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2468,7 +2468,7 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>5536</v>
+        <v>5548</v>
       </c>
       <c r="C84" s="4">
         <v>310</v>
@@ -2477,7 +2477,7 @@
         <v>2616</v>
       </c>
       <c r="E84" s="4">
-        <v>8462</v>
+        <v>8474</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2485,16 +2485,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>674177</v>
+        <v>675889</v>
       </c>
       <c r="C85" s="4">
-        <v>27411</v>
+        <v>27446</v>
       </c>
       <c r="D85" s="4">
-        <v>110235</v>
+        <v>110857</v>
       </c>
       <c r="E85" s="4">
-        <v>811823</v>
+        <v>814192</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2502,16 +2502,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>4406</v>
+        <v>4442</v>
       </c>
       <c r="C86" s="4">
         <v>75</v>
       </c>
       <c r="D86" s="4">
-        <v>2028</v>
+        <v>2037</v>
       </c>
       <c r="E86" s="4">
-        <v>6509</v>
+        <v>6554</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2519,16 +2519,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>23019</v>
+        <v>23058</v>
       </c>
       <c r="C87" s="4">
         <v>1064</v>
       </c>
       <c r="D87" s="4">
-        <v>12580</v>
+        <v>12682</v>
       </c>
       <c r="E87" s="4">
-        <v>36663</v>
+        <v>36804</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2553,16 +2553,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>5125</v>
+        <v>5153</v>
       </c>
       <c r="C89" s="4">
         <v>369</v>
       </c>
       <c r="D89" s="4">
-        <v>3952</v>
+        <v>3960</v>
       </c>
       <c r="E89" s="4">
-        <v>9446</v>
+        <v>9482</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2570,16 +2570,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>18205</v>
+        <v>18226</v>
       </c>
       <c r="C90" s="4">
         <v>531</v>
       </c>
       <c r="D90" s="4">
-        <v>12460</v>
+        <v>12472</v>
       </c>
       <c r="E90" s="4">
-        <v>31196</v>
+        <v>31229</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2587,16 +2587,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>14097</v>
+        <v>14151</v>
       </c>
       <c r="C91" s="4">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D91" s="4">
-        <v>12609</v>
+        <v>12669</v>
       </c>
       <c r="E91" s="4">
-        <v>28081</v>
+        <v>28196</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2604,16 +2604,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>180383</v>
+        <v>180768</v>
       </c>
       <c r="C92" s="4">
-        <v>6314</v>
+        <v>6331</v>
       </c>
       <c r="D92" s="4">
-        <v>55332</v>
+        <v>55628</v>
       </c>
       <c r="E92" s="4">
-        <v>242029</v>
+        <v>242727</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2621,16 +2621,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>86639</v>
+        <v>86822</v>
       </c>
       <c r="C93" s="4">
-        <v>12343</v>
+        <v>12347</v>
       </c>
       <c r="D93" s="4">
-        <v>49345</v>
+        <v>49582</v>
       </c>
       <c r="E93" s="4">
-        <v>148327</v>
+        <v>148751</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2638,16 +2638,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>59784</v>
+        <v>60012</v>
       </c>
       <c r="C94" s="4">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D94" s="4">
-        <v>15486</v>
+        <v>15536</v>
       </c>
       <c r="E94" s="4">
-        <v>76776</v>
+        <v>77055</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2655,16 +2655,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>161194</v>
+        <v>161668</v>
       </c>
       <c r="C95" s="4">
         <v>6302</v>
       </c>
       <c r="D95" s="4">
-        <v>51938</v>
+        <v>52073</v>
       </c>
       <c r="E95" s="4">
-        <v>219434</v>
+        <v>220043</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2672,16 +2672,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>33779</v>
+        <v>33839</v>
       </c>
       <c r="C96" s="4">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D96" s="4">
-        <v>9150</v>
+        <v>9176</v>
       </c>
       <c r="E96" s="4">
-        <v>43475</v>
+        <v>43562</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2689,7 +2689,7 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>2528</v>
+        <v>2543</v>
       </c>
       <c r="C97" s="4">
         <v>80</v>
@@ -2698,7 +2698,7 @@
         <v>3456</v>
       </c>
       <c r="E97" s="4">
-        <v>6064</v>
+        <v>6079</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2706,16 +2706,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>11761</v>
+        <v>11800</v>
       </c>
       <c r="C98" s="4">
         <v>476</v>
       </c>
       <c r="D98" s="4">
-        <v>4527</v>
+        <v>4645</v>
       </c>
       <c r="E98" s="4">
-        <v>16764</v>
+        <v>16921</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2723,16 +2723,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="C99" s="4">
         <v>872</v>
       </c>
       <c r="D99" s="4">
-        <v>3650</v>
+        <v>3657</v>
       </c>
       <c r="E99" s="4">
-        <v>6613</v>
+        <v>6621</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2740,16 +2740,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>2677</v>
+        <v>2689</v>
       </c>
       <c r="C100" s="4">
         <v>326</v>
       </c>
       <c r="D100" s="4">
-        <v>3674</v>
+        <v>3694</v>
       </c>
       <c r="E100" s="4">
-        <v>6677</v>
+        <v>6709</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2757,16 +2757,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>45484</v>
+        <v>45579</v>
       </c>
       <c r="C101" s="4">
         <v>4538</v>
       </c>
       <c r="D101" s="4">
-        <v>28403</v>
+        <v>28507</v>
       </c>
       <c r="E101" s="4">
-        <v>78425</v>
+        <v>78624</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2774,16 +2774,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>7985522</v>
+        <v>8010384</v>
       </c>
       <c r="C102" s="4">
-        <v>280484</v>
+        <v>280710</v>
       </c>
       <c r="D102" s="4">
-        <v>1170439</v>
+        <v>1175558</v>
       </c>
       <c r="E102" s="4">
-        <v>9436445</v>
+        <v>9466652</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2791,16 +2791,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>88298</v>
+        <v>88425</v>
       </c>
       <c r="C103" s="4">
-        <v>9384</v>
+        <v>9387</v>
       </c>
       <c r="D103" s="4">
-        <v>34709</v>
+        <v>34947</v>
       </c>
       <c r="E103" s="4">
-        <v>132391</v>
+        <v>132759</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2808,7 +2808,7 @@
         <v>107</v>
       </c>
       <c r="B104" s="4">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C104" s="4">
         <v>81</v>
@@ -2817,7 +2817,7 @@
         <v>281</v>
       </c>
       <c r="E104" s="4">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2825,16 +2825,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="C105" s="4">
         <v>48</v>
       </c>
       <c r="D105" s="4">
-        <v>3988</v>
+        <v>4010</v>
       </c>
       <c r="E105" s="4">
-        <v>6032</v>
+        <v>6056</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2842,16 +2842,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>486909</v>
+        <v>488102</v>
       </c>
       <c r="C106" s="4">
-        <v>17305</v>
+        <v>17312</v>
       </c>
       <c r="D106" s="4">
-        <v>64785</v>
+        <v>65071</v>
       </c>
       <c r="E106" s="4">
-        <v>568999</v>
+        <v>570485</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2859,16 +2859,16 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="C107" s="4">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D107" s="4">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E107" s="4">
-        <v>2459</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2876,16 +2876,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>52256</v>
+        <v>52470</v>
       </c>
       <c r="C108" s="4">
-        <v>3307</v>
+        <v>3311</v>
       </c>
       <c r="D108" s="4">
-        <v>30481</v>
+        <v>30681</v>
       </c>
       <c r="E108" s="4">
-        <v>86044</v>
+        <v>86462</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2893,16 +2893,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>892933</v>
+        <v>896080</v>
       </c>
       <c r="C109" s="4">
-        <v>22257</v>
+        <v>22288</v>
       </c>
       <c r="D109" s="4">
-        <v>424277</v>
+        <v>425738</v>
       </c>
       <c r="E109" s="4">
-        <v>1339467</v>
+        <v>1344106</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2910,16 +2910,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>44014</v>
+        <v>44050</v>
       </c>
       <c r="C110" s="4">
         <v>1313</v>
       </c>
       <c r="D110" s="4">
-        <v>20303</v>
+        <v>20446</v>
       </c>
       <c r="E110" s="4">
-        <v>65630</v>
+        <v>65809</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2927,16 +2927,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>20034</v>
+        <v>20160</v>
       </c>
       <c r="C111" s="4">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D111" s="4">
-        <v>7797</v>
+        <v>7826</v>
       </c>
       <c r="E111" s="4">
-        <v>28092</v>
+        <v>28249</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2944,16 +2944,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>58940</v>
+        <v>59123</v>
       </c>
       <c r="C112" s="4">
         <v>3318</v>
       </c>
       <c r="D112" s="4">
-        <v>46877</v>
+        <v>46948</v>
       </c>
       <c r="E112" s="4">
-        <v>109135</v>
+        <v>109389</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2961,16 +2961,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>28846</v>
+        <v>28940</v>
       </c>
       <c r="C113" s="4">
         <v>2155</v>
       </c>
       <c r="D113" s="4">
-        <v>15770</v>
+        <v>15788</v>
       </c>
       <c r="E113" s="4">
-        <v>46771</v>
+        <v>46883</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2978,16 +2978,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>21702</v>
+        <v>21751</v>
       </c>
       <c r="C114" s="4">
         <v>713</v>
       </c>
       <c r="D114" s="4">
-        <v>12064</v>
+        <v>12101</v>
       </c>
       <c r="E114" s="4">
-        <v>34479</v>
+        <v>34565</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2995,16 +2995,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>23731</v>
+        <v>23762</v>
       </c>
       <c r="C115" s="4">
         <v>952</v>
       </c>
       <c r="D115" s="4">
-        <v>21210</v>
+        <v>21513</v>
       </c>
       <c r="E115" s="4">
-        <v>45893</v>
+        <v>46227</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3012,16 +3012,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>3493</v>
+        <v>3502</v>
       </c>
       <c r="C116" s="4">
         <v>52</v>
       </c>
       <c r="D116" s="4">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="E116" s="4">
-        <v>5333</v>
+        <v>5344</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3029,16 +3029,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>140290</v>
+        <v>140667</v>
       </c>
       <c r="C117" s="4">
-        <v>5245</v>
+        <v>5252</v>
       </c>
       <c r="D117" s="4">
-        <v>51666</v>
+        <v>51759</v>
       </c>
       <c r="E117" s="4">
-        <v>197201</v>
+        <v>197678</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3046,16 +3046,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>14157</v>
+        <v>14215</v>
       </c>
       <c r="C118" s="4">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="D118" s="4">
-        <v>10995</v>
+        <v>11045</v>
       </c>
       <c r="E118" s="4">
-        <v>27012</v>
+        <v>27122</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3063,16 +3063,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C119" s="4">
         <v>26</v>
       </c>
       <c r="D119" s="4">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="E119" s="4">
-        <v>1552</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3080,16 +3080,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>5430</v>
+        <v>5438</v>
       </c>
       <c r="C120" s="4">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="D120" s="4">
-        <v>2062</v>
+        <v>2072</v>
       </c>
       <c r="E120" s="4">
-        <v>7779</v>
+        <v>7807</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3097,16 +3097,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>11566</v>
+        <v>11596</v>
       </c>
       <c r="C121" s="4">
         <v>567</v>
       </c>
       <c r="D121" s="4">
-        <v>6241</v>
+        <v>6245</v>
       </c>
       <c r="E121" s="4">
-        <v>18374</v>
+        <v>18408</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3114,16 +3114,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>29682</v>
+        <v>29747</v>
       </c>
       <c r="C122" s="4">
         <v>3137</v>
       </c>
       <c r="D122" s="4">
-        <v>17027</v>
+        <v>17213</v>
       </c>
       <c r="E122" s="4">
-        <v>49846</v>
+        <v>50097</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3148,16 +3148,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>248875</v>
+        <v>249480</v>
       </c>
       <c r="C124" s="4">
-        <v>16605</v>
+        <v>16608</v>
       </c>
       <c r="D124" s="4">
-        <v>110552</v>
+        <v>110986</v>
       </c>
       <c r="E124" s="4">
-        <v>376032</v>
+        <v>377074</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3165,16 +3165,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>15149</v>
+        <v>15151</v>
       </c>
       <c r="C125" s="4">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="D125" s="4">
-        <v>16349</v>
+        <v>16406</v>
       </c>
       <c r="E125" s="4">
-        <v>32266</v>
+        <v>32327</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3182,16 +3182,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>85332</v>
+        <v>85441</v>
       </c>
       <c r="C126" s="4">
-        <v>11193</v>
+        <v>11201</v>
       </c>
       <c r="D126" s="4">
-        <v>37575</v>
+        <v>37690</v>
       </c>
       <c r="E126" s="4">
-        <v>134100</v>
+        <v>134332</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3199,16 +3199,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>208948</v>
+        <v>209590</v>
       </c>
       <c r="C127" s="4">
-        <v>9369</v>
+        <v>9373</v>
       </c>
       <c r="D127" s="4">
-        <v>54790</v>
+        <v>55028</v>
       </c>
       <c r="E127" s="4">
-        <v>273107</v>
+        <v>273991</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3216,16 +3216,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>11698</v>
+        <v>11711</v>
       </c>
       <c r="C128" s="4">
         <v>247</v>
       </c>
       <c r="D128" s="4">
-        <v>10183</v>
+        <v>10331</v>
       </c>
       <c r="E128" s="4">
-        <v>22128</v>
+        <v>22289</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3233,16 +3233,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>22729</v>
+        <v>22775</v>
       </c>
       <c r="C129" s="4">
         <v>589</v>
       </c>
       <c r="D129" s="4">
-        <v>14232</v>
+        <v>14241</v>
       </c>
       <c r="E129" s="4">
-        <v>37550</v>
+        <v>37605</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3250,16 +3250,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>188574</v>
+        <v>189033</v>
       </c>
       <c r="C130" s="4">
-        <v>7346</v>
+        <v>7354</v>
       </c>
       <c r="D130" s="4">
-        <v>58396</v>
+        <v>58534</v>
       </c>
       <c r="E130" s="4">
-        <v>254316</v>
+        <v>254921</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3267,16 +3267,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>45756</v>
+        <v>45907</v>
       </c>
       <c r="C131" s="4">
         <v>2949</v>
       </c>
       <c r="D131" s="4">
-        <v>23802</v>
+        <v>23858</v>
       </c>
       <c r="E131" s="4">
-        <v>72507</v>
+        <v>72714</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3318,16 +3318,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>48310</v>
+        <v>48374</v>
       </c>
       <c r="C134" s="4">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="D134" s="4">
-        <v>50116</v>
+        <v>50434</v>
       </c>
       <c r="E134" s="4">
-        <v>100518</v>
+        <v>100901</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3335,16 +3335,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>2394</v>
+        <v>2397</v>
       </c>
       <c r="C135" s="4">
         <v>72</v>
       </c>
       <c r="D135" s="4">
-        <v>1586</v>
+        <v>1600</v>
       </c>
       <c r="E135" s="4">
-        <v>4052</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3369,16 +3369,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>3494</v>
+        <v>3506</v>
       </c>
       <c r="C137" s="4">
         <v>58</v>
       </c>
       <c r="D137" s="4">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="E137" s="4">
-        <v>4384</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3386,16 +3386,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>42464</v>
+        <v>42509</v>
       </c>
       <c r="C138" s="4">
-        <v>5512</v>
+        <v>5514</v>
       </c>
       <c r="D138" s="4">
-        <v>18971</v>
+        <v>19035</v>
       </c>
       <c r="E138" s="4">
-        <v>66947</v>
+        <v>67058</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3403,16 +3403,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="C139" s="4">
         <v>63</v>
       </c>
       <c r="D139" s="4">
-        <v>6781</v>
+        <v>6812</v>
       </c>
       <c r="E139" s="4">
-        <v>8092</v>
+        <v>8126</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3420,16 +3420,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>13528</v>
+        <v>13546</v>
       </c>
       <c r="C140" s="4">
         <v>328</v>
       </c>
       <c r="D140" s="4">
-        <v>5864</v>
+        <v>6089</v>
       </c>
       <c r="E140" s="4">
-        <v>19720</v>
+        <v>19963</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3437,16 +3437,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>32441</v>
+        <v>32497</v>
       </c>
       <c r="C141" s="4">
-        <v>3007</v>
+        <v>3009</v>
       </c>
       <c r="D141" s="4">
-        <v>22774</v>
+        <v>22957</v>
       </c>
       <c r="E141" s="4">
-        <v>58222</v>
+        <v>58463</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3454,16 +3454,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>9614</v>
+        <v>9742</v>
       </c>
       <c r="C142" s="4">
         <v>185</v>
       </c>
       <c r="D142" s="4">
-        <v>10906</v>
+        <v>10921</v>
       </c>
       <c r="E142" s="4">
-        <v>20705</v>
+        <v>20848</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3471,16 +3471,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>30860</v>
+        <v>30930</v>
       </c>
       <c r="C143" s="4">
         <v>792</v>
       </c>
       <c r="D143" s="4">
-        <v>8577</v>
+        <v>8656</v>
       </c>
       <c r="E143" s="4">
-        <v>40229</v>
+        <v>40378</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3488,16 +3488,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>19784</v>
+        <v>19816</v>
       </c>
       <c r="C144" s="4">
         <v>1368</v>
       </c>
       <c r="D144" s="4">
-        <v>15988</v>
+        <v>16027</v>
       </c>
       <c r="E144" s="4">
-        <v>37140</v>
+        <v>37211</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3505,16 +3505,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>13806</v>
+        <v>13840</v>
       </c>
       <c r="C145" s="4">
         <v>482</v>
       </c>
       <c r="D145" s="4">
-        <v>7334</v>
+        <v>7383</v>
       </c>
       <c r="E145" s="4">
-        <v>21622</v>
+        <v>21705</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3522,16 +3522,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>17765</v>
+        <v>17808</v>
       </c>
       <c r="C146" s="4">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D146" s="4">
-        <v>7819</v>
+        <v>7855</v>
       </c>
       <c r="E146" s="4">
-        <v>26446</v>
+        <v>26527</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3539,16 +3539,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>96889</v>
+        <v>97119</v>
       </c>
       <c r="C147" s="4">
-        <v>4777</v>
+        <v>4779</v>
       </c>
       <c r="D147" s="4">
-        <v>27310</v>
+        <v>27420</v>
       </c>
       <c r="E147" s="4">
-        <v>128976</v>
+        <v>129318</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3556,16 +3556,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>41133</v>
+        <v>41172</v>
       </c>
       <c r="C148" s="4">
         <v>798</v>
       </c>
       <c r="D148" s="4">
-        <v>38906</v>
+        <v>39205</v>
       </c>
       <c r="E148" s="4">
-        <v>80837</v>
+        <v>81175</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3573,7 +3573,7 @@
         <v>152</v>
       </c>
       <c r="B149" s="4">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C149" s="4">
         <v>320</v>
@@ -3582,7 +3582,7 @@
         <v>965</v>
       </c>
       <c r="E149" s="4">
-        <v>1876</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3590,16 +3590,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>9717</v>
+        <v>9731</v>
       </c>
       <c r="C150" s="4">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="D150" s="4">
-        <v>7549</v>
+        <v>7583</v>
       </c>
       <c r="E150" s="4">
-        <v>18615</v>
+        <v>18665</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3607,16 +3607,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>19449</v>
+        <v>19485</v>
       </c>
       <c r="C151" s="4">
         <v>649</v>
       </c>
       <c r="D151" s="4">
-        <v>5471</v>
+        <v>5508</v>
       </c>
       <c r="E151" s="4">
-        <v>25569</v>
+        <v>25642</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3624,16 +3624,16 @@
         <v>155</v>
       </c>
       <c r="B152" s="4">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C152" s="4">
         <v>5</v>
       </c>
       <c r="D152" s="4">
-        <v>9330</v>
+        <v>9444</v>
       </c>
       <c r="E152" s="4">
-        <v>9632</v>
+        <v>9751</v>
       </c>
     </row>
     <row r="153" ht="14" customHeight="1">
@@ -3641,16 +3641,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>367250</v>
+        <v>368335</v>
       </c>
       <c r="C153" s="4">
-        <v>12298</v>
+        <v>12307</v>
       </c>
       <c r="D153" s="4">
-        <v>193444</v>
+        <v>194611</v>
       </c>
       <c r="E153" s="4">
-        <v>572992</v>
+        <v>575253</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3658,16 +3658,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>4599</v>
+        <v>4653</v>
       </c>
       <c r="C154" s="4">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D154" s="4">
-        <v>4307</v>
+        <v>4322</v>
       </c>
       <c r="E154" s="4">
-        <v>9090</v>
+        <v>9160</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3675,16 +3675,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>20364</v>
+        <v>20412</v>
       </c>
       <c r="C155" s="4">
         <v>418</v>
       </c>
       <c r="D155" s="4">
-        <v>7030</v>
+        <v>7035</v>
       </c>
       <c r="E155" s="4">
-        <v>27812</v>
+        <v>27865</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3692,16 +3692,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>4323</v>
+        <v>4334</v>
       </c>
       <c r="C156" s="4">
         <v>872</v>
       </c>
       <c r="D156" s="4">
-        <v>4005</v>
+        <v>4012</v>
       </c>
       <c r="E156" s="4">
-        <v>9200</v>
+        <v>9218</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3709,16 +3709,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="C157" s="4">
         <v>275</v>
       </c>
       <c r="D157" s="4">
-        <v>1488</v>
+        <v>1496</v>
       </c>
       <c r="E157" s="4">
-        <v>3673</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3726,16 +3726,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>2621</v>
+        <v>2629</v>
       </c>
       <c r="C158" s="4">
         <v>125</v>
       </c>
       <c r="D158" s="4">
-        <v>2158</v>
+        <v>2170</v>
       </c>
       <c r="E158" s="4">
-        <v>4904</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3743,16 +3743,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>51300</v>
+        <v>51407</v>
       </c>
       <c r="C159" s="4">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D159" s="4">
-        <v>8268</v>
+        <v>8295</v>
       </c>
       <c r="E159" s="4">
-        <v>61571</v>
+        <v>61706</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3760,16 +3760,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>101397</v>
+        <v>101766</v>
       </c>
       <c r="C160" s="4">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D160" s="4">
-        <v>28753</v>
+        <v>28795</v>
       </c>
       <c r="E160" s="4">
-        <v>130672</v>
+        <v>131084</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3777,16 +3777,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>3921</v>
+        <v>3926</v>
       </c>
       <c r="C161" s="4">
         <v>94</v>
       </c>
       <c r="D161" s="4">
-        <v>4599</v>
+        <v>4620</v>
       </c>
       <c r="E161" s="4">
-        <v>8614</v>
+        <v>8640</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3794,16 +3794,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>442851</v>
+        <v>444013</v>
       </c>
       <c r="C162" s="4">
-        <v>13399</v>
+        <v>13400</v>
       </c>
       <c r="D162" s="4">
-        <v>162674</v>
+        <v>163482</v>
       </c>
       <c r="E162" s="4">
-        <v>618924</v>
+        <v>620895</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3811,7 +3811,7 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="C163" s="4">
         <v>63</v>
@@ -3820,7 +3820,7 @@
         <v>172</v>
       </c>
       <c r="E163" s="4">
-        <v>851</v>
+        <v>857</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3828,16 +3828,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>53478</v>
+        <v>53703</v>
       </c>
       <c r="C164" s="4">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="D164" s="4">
-        <v>16362</v>
+        <v>16385</v>
       </c>
       <c r="E164" s="4">
-        <v>71568</v>
+        <v>71817</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3845,16 +3845,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2499</v>
+        <v>2502</v>
       </c>
       <c r="C165" s="4">
         <v>29</v>
       </c>
       <c r="D165" s="4">
-        <v>2601</v>
+        <v>2606</v>
       </c>
       <c r="E165" s="4">
-        <v>5129</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3862,16 +3862,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>86885</v>
+        <v>87115</v>
       </c>
       <c r="C166" s="4">
-        <v>11799</v>
+        <v>11835</v>
       </c>
       <c r="D166" s="4">
-        <v>89293</v>
+        <v>89515</v>
       </c>
       <c r="E166" s="4">
-        <v>187977</v>
+        <v>188465</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3879,16 +3879,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>26851</v>
+        <v>26900</v>
       </c>
       <c r="C167" s="4">
         <v>1348</v>
       </c>
       <c r="D167" s="4">
-        <v>14923</v>
+        <v>14956</v>
       </c>
       <c r="E167" s="4">
-        <v>43122</v>
+        <v>43204</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3896,16 +3896,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>9278</v>
+        <v>9293</v>
       </c>
       <c r="C168" s="4">
         <v>137</v>
       </c>
       <c r="D168" s="4">
-        <v>2922</v>
+        <v>2926</v>
       </c>
       <c r="E168" s="4">
-        <v>12337</v>
+        <v>12356</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3913,16 +3913,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>9043</v>
+        <v>9050</v>
       </c>
       <c r="C169" s="4">
         <v>86</v>
       </c>
       <c r="D169" s="4">
-        <v>7570</v>
+        <v>7658</v>
       </c>
       <c r="E169" s="4">
-        <v>16699</v>
+        <v>16794</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3930,16 +3930,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>19902</v>
+        <v>19942</v>
       </c>
       <c r="C170" s="4">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="D170" s="4">
-        <v>10216</v>
+        <v>10231</v>
       </c>
       <c r="E170" s="4">
-        <v>31457</v>
+        <v>31516</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3947,16 +3947,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>750160</v>
+        <v>752395</v>
       </c>
       <c r="C171" s="4">
-        <v>48796</v>
+        <v>48819</v>
       </c>
       <c r="D171" s="4">
-        <v>162952</v>
+        <v>163975</v>
       </c>
       <c r="E171" s="4">
-        <v>961908</v>
+        <v>965189</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3964,16 +3964,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>11545</v>
+        <v>11621</v>
       </c>
       <c r="C172" s="4">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="D172" s="4">
-        <v>7147</v>
+        <v>7180</v>
       </c>
       <c r="E172" s="4">
-        <v>19947</v>
+        <v>20058</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3981,16 +3981,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>9941</v>
+        <v>9983</v>
       </c>
       <c r="C173" s="4">
         <v>822</v>
       </c>
       <c r="D173" s="4">
-        <v>8934</v>
+        <v>8946</v>
       </c>
       <c r="E173" s="4">
-        <v>19697</v>
+        <v>19751</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -3998,16 +3998,16 @@
         <v>177</v>
       </c>
       <c r="B174" s="4">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C174" s="4">
         <v>17</v>
       </c>
       <c r="D174" s="4">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E174" s="4">
-        <v>1327</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4015,16 +4015,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>68542</v>
+        <v>68646</v>
       </c>
       <c r="C175" s="4">
         <v>4443</v>
       </c>
       <c r="D175" s="4">
-        <v>23219</v>
+        <v>23355</v>
       </c>
       <c r="E175" s="4">
-        <v>96204</v>
+        <v>96444</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4032,16 +4032,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>43493</v>
+        <v>43551</v>
       </c>
       <c r="C176" s="4">
         <v>2081</v>
       </c>
       <c r="D176" s="4">
-        <v>35969</v>
+        <v>36530</v>
       </c>
       <c r="E176" s="4">
-        <v>81543</v>
+        <v>82162</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4049,16 +4049,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>7533</v>
+        <v>7542</v>
       </c>
       <c r="C177" s="4">
         <v>936</v>
       </c>
       <c r="D177" s="4">
-        <v>5769</v>
+        <v>5841</v>
       </c>
       <c r="E177" s="4">
-        <v>14238</v>
+        <v>14319</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4066,16 +4066,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>10336</v>
+        <v>10341</v>
       </c>
       <c r="C178" s="4">
         <v>235</v>
       </c>
       <c r="D178" s="4">
-        <v>8547</v>
+        <v>8569</v>
       </c>
       <c r="E178" s="4">
-        <v>19118</v>
+        <v>19145</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4083,16 +4083,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>386880</v>
+        <v>387824</v>
       </c>
       <c r="C179" s="4">
-        <v>53417</v>
+        <v>53427</v>
       </c>
       <c r="D179" s="4">
-        <v>185935</v>
+        <v>186871</v>
       </c>
       <c r="E179" s="4">
-        <v>626232</v>
+        <v>628122</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4100,16 +4100,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>1709</v>
+        <v>1720</v>
       </c>
       <c r="C180" s="4">
         <v>467</v>
       </c>
       <c r="D180" s="4">
-        <v>1439</v>
+        <v>1444</v>
       </c>
       <c r="E180" s="4">
-        <v>3615</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4117,16 +4117,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="C181" s="4">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D181" s="4">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="E181" s="4">
-        <v>2979</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4134,16 +4134,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>56889</v>
+        <v>57164</v>
       </c>
       <c r="C182" s="4">
-        <v>7210</v>
+        <v>7212</v>
       </c>
       <c r="D182" s="4">
-        <v>32707</v>
+        <v>32879</v>
       </c>
       <c r="E182" s="4">
-        <v>96806</v>
+        <v>97255</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4151,16 +4151,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>27143</v>
+        <v>27236</v>
       </c>
       <c r="C183" s="4">
         <v>1137</v>
       </c>
       <c r="D183" s="4">
-        <v>13847</v>
+        <v>13854</v>
       </c>
       <c r="E183" s="4">
-        <v>42127</v>
+        <v>42227</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4168,16 +4168,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>15447</v>
+        <v>15544</v>
       </c>
       <c r="C184" s="4">
         <v>1345</v>
       </c>
       <c r="D184" s="4">
-        <v>10601</v>
+        <v>10677</v>
       </c>
       <c r="E184" s="4">
-        <v>27393</v>
+        <v>27566</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4185,16 +4185,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>144672</v>
+        <v>145155</v>
       </c>
       <c r="C185" s="4">
-        <v>8018</v>
+        <v>8021</v>
       </c>
       <c r="D185" s="4">
-        <v>43447</v>
+        <v>43550</v>
       </c>
       <c r="E185" s="4">
-        <v>196137</v>
+        <v>196726</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4202,16 +4202,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>3476</v>
+        <v>3503</v>
       </c>
       <c r="C186" s="4">
         <v>383</v>
       </c>
       <c r="D186" s="4">
-        <v>4054</v>
+        <v>4082</v>
       </c>
       <c r="E186" s="4">
-        <v>7913</v>
+        <v>7968</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4219,16 +4219,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>15095</v>
+        <v>15106</v>
       </c>
       <c r="C187" s="4">
         <v>172</v>
       </c>
       <c r="D187" s="4">
-        <v>5116</v>
+        <v>5136</v>
       </c>
       <c r="E187" s="4">
-        <v>20383</v>
+        <v>20414</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4236,16 +4236,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>59524</v>
+        <v>59671</v>
       </c>
       <c r="C188" s="4">
-        <v>2950</v>
+        <v>2952</v>
       </c>
       <c r="D188" s="4">
-        <v>23513</v>
+        <v>23644</v>
       </c>
       <c r="E188" s="4">
-        <v>85987</v>
+        <v>86267</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4253,16 +4253,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>121283</v>
+        <v>121688</v>
       </c>
       <c r="C189" s="4">
-        <v>10218</v>
+        <v>10228</v>
       </c>
       <c r="D189" s="4">
-        <v>50604</v>
+        <v>50765</v>
       </c>
       <c r="E189" s="4">
-        <v>182105</v>
+        <v>182681</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4270,16 +4270,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>8066</v>
+        <v>8072</v>
       </c>
       <c r="C190" s="4">
         <v>62</v>
       </c>
       <c r="D190" s="4">
-        <v>2416</v>
+        <v>2419</v>
       </c>
       <c r="E190" s="4">
-        <v>10544</v>
+        <v>10553</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4287,16 +4287,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>6098</v>
+        <v>6111</v>
       </c>
       <c r="C191" s="4">
         <v>496</v>
       </c>
       <c r="D191" s="4">
-        <v>3879</v>
+        <v>3889</v>
       </c>
       <c r="E191" s="4">
-        <v>10473</v>
+        <v>10496</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4304,16 +4304,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>90554</v>
+        <v>90955</v>
       </c>
       <c r="C192" s="4">
-        <v>20912</v>
+        <v>20934</v>
       </c>
       <c r="D192" s="4">
-        <v>45342</v>
+        <v>45525</v>
       </c>
       <c r="E192" s="4">
-        <v>156808</v>
+        <v>157414</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4321,16 +4321,16 @@
         <v>196</v>
       </c>
       <c r="B193" s="4">
-        <v>1267</v>
+        <v>1273</v>
       </c>
       <c r="C193" s="4">
         <v>47</v>
       </c>
       <c r="D193" s="4">
-        <v>1330</v>
+        <v>1343</v>
       </c>
       <c r="E193" s="4">
-        <v>2644</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4338,16 +4338,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>2883</v>
+        <v>2890</v>
       </c>
       <c r="C194" s="4">
         <v>130</v>
       </c>
       <c r="D194" s="4">
-        <v>1788</v>
+        <v>1795</v>
       </c>
       <c r="E194" s="4">
-        <v>4801</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4355,16 +4355,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>8755</v>
+        <v>8772</v>
       </c>
       <c r="C195" s="4">
         <v>763</v>
       </c>
       <c r="D195" s="4">
-        <v>9690</v>
+        <v>9746</v>
       </c>
       <c r="E195" s="4">
-        <v>19208</v>
+        <v>19281</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4372,16 +4372,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>13857</v>
+        <v>13865</v>
       </c>
       <c r="C196" s="4">
         <v>547</v>
       </c>
       <c r="D196" s="4">
-        <v>97469</v>
+        <v>97561</v>
       </c>
       <c r="E196" s="4">
-        <v>111873</v>
+        <v>111973</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4389,16 +4389,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>6327</v>
+        <v>6340</v>
       </c>
       <c r="C197" s="4">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D197" s="4">
-        <v>8799</v>
+        <v>8805</v>
       </c>
       <c r="E197" s="4">
-        <v>15652</v>
+        <v>15673</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4406,16 +4406,16 @@
         <v>201</v>
       </c>
       <c r="B198" s="4">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C198" s="4">
         <v>128</v>
       </c>
       <c r="D198" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E198" s="4">
-        <v>594</v>
+        <v>599</v>
       </c>
     </row>
     <row r="199" ht="14" customHeight="1">
@@ -4423,16 +4423,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>20382</v>
+        <v>20415</v>
       </c>
       <c r="C199" s="4">
         <v>578</v>
       </c>
       <c r="D199" s="4">
-        <v>14356</v>
+        <v>14365</v>
       </c>
       <c r="E199" s="4">
-        <v>35316</v>
+        <v>35358</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4440,16 +4440,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>120806</v>
+        <v>121050</v>
       </c>
       <c r="C200" s="4">
-        <v>8206</v>
+        <v>8216</v>
       </c>
       <c r="D200" s="4">
-        <v>23487</v>
+        <v>23600</v>
       </c>
       <c r="E200" s="4">
-        <v>152499</v>
+        <v>152866</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4457,16 +4457,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>8387</v>
+        <v>8390</v>
       </c>
       <c r="C201" s="4">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D201" s="4">
-        <v>8771</v>
+        <v>8801</v>
       </c>
       <c r="E201" s="4">
-        <v>17408</v>
+        <v>17442</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4474,16 +4474,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>37356</v>
+        <v>37429</v>
       </c>
       <c r="C202" s="4">
         <v>2518</v>
       </c>
       <c r="D202" s="4">
-        <v>11107</v>
+        <v>11189</v>
       </c>
       <c r="E202" s="4">
-        <v>50981</v>
+        <v>51136</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4491,16 +4491,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>11379</v>
+        <v>11391</v>
       </c>
       <c r="C203" s="4">
         <v>760</v>
       </c>
       <c r="D203" s="4">
-        <v>5221</v>
+        <v>5229</v>
       </c>
       <c r="E203" s="4">
-        <v>17360</v>
+        <v>17380</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4508,16 +4508,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>10736</v>
+        <v>10750</v>
       </c>
       <c r="C204" s="4">
         <v>295</v>
       </c>
       <c r="D204" s="4">
-        <v>9531</v>
+        <v>9638</v>
       </c>
       <c r="E204" s="4">
-        <v>20562</v>
+        <v>20683</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4525,16 +4525,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>33474</v>
+        <v>33582</v>
       </c>
       <c r="C205" s="4">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="D205" s="4">
-        <v>11159</v>
+        <v>11205</v>
       </c>
       <c r="E205" s="4">
-        <v>47150</v>
+        <v>47305</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4542,16 +4542,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>58832</v>
+        <v>59071</v>
       </c>
       <c r="C206" s="4">
-        <v>10043</v>
+        <v>10049</v>
       </c>
       <c r="D206" s="4">
-        <v>47266</v>
+        <v>47402</v>
       </c>
       <c r="E206" s="4">
-        <v>116141</v>
+        <v>116522</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4559,16 +4559,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>5666</v>
+        <v>5672</v>
       </c>
       <c r="C207" s="4">
         <v>135</v>
       </c>
       <c r="D207" s="4">
-        <v>4420</v>
+        <v>4437</v>
       </c>
       <c r="E207" s="4">
-        <v>10221</v>
+        <v>10244</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4576,16 +4576,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>1160</v>
+        <v>1167</v>
       </c>
       <c r="C208" s="4">
         <v>25</v>
       </c>
       <c r="D208" s="4">
-        <v>1132</v>
+        <v>1138</v>
       </c>
       <c r="E208" s="4">
-        <v>2317</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4593,16 +4593,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>30700</v>
+        <v>30778</v>
       </c>
       <c r="C209" s="4">
         <v>356</v>
       </c>
       <c r="D209" s="4">
-        <v>5243</v>
+        <v>5280</v>
       </c>
       <c r="E209" s="4">
-        <v>36299</v>
+        <v>36414</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4616,10 +4616,10 @@
         <v>98</v>
       </c>
       <c r="D210" s="4">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="E210" s="4">
-        <v>2719</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4627,16 +4627,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>22985</v>
+        <v>23052</v>
       </c>
       <c r="C211" s="4">
         <v>1458</v>
       </c>
       <c r="D211" s="4">
-        <v>11303</v>
+        <v>11358</v>
       </c>
       <c r="E211" s="4">
-        <v>35746</v>
+        <v>35868</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4644,16 +4644,16 @@
         <v>215</v>
       </c>
       <c r="B212" s="4">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C212" s="4">
         <v>177</v>
       </c>
       <c r="D212" s="4">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E212" s="4">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4661,16 +4661,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>308763</v>
+        <v>310477</v>
       </c>
       <c r="C213" s="4">
-        <v>15217</v>
+        <v>15224</v>
       </c>
       <c r="D213" s="4">
-        <v>108296</v>
+        <v>109710</v>
       </c>
       <c r="E213" s="4">
-        <v>432276</v>
+        <v>435411</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4678,16 +4678,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>9409</v>
+        <v>9428</v>
       </c>
       <c r="C214" s="4">
         <v>449</v>
       </c>
       <c r="D214" s="4">
-        <v>8752</v>
+        <v>8762</v>
       </c>
       <c r="E214" s="4">
-        <v>18610</v>
+        <v>18639</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4695,16 +4695,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>85021</v>
+        <v>85149</v>
       </c>
       <c r="C215" s="4">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="D215" s="4">
-        <v>38017</v>
+        <v>38117</v>
       </c>
       <c r="E215" s="4">
-        <v>123949</v>
+        <v>124179</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4712,16 +4712,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>6321</v>
+        <v>6334</v>
       </c>
       <c r="C216" s="4">
         <v>170</v>
       </c>
       <c r="D216" s="4">
-        <v>7705</v>
+        <v>7709</v>
       </c>
       <c r="E216" s="4">
-        <v>14196</v>
+        <v>14213</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4729,16 +4729,16 @@
         <v>220</v>
       </c>
       <c r="B217" s="4">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C217" s="4">
         <v>25</v>
       </c>
       <c r="D217" s="4">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="E217" s="4">
-        <v>1858</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4746,16 +4746,16 @@
         <v>221</v>
       </c>
       <c r="B218" s="4">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C218" s="4">
         <v>10</v>
       </c>
       <c r="D218" s="4">
-        <v>1815</v>
+        <v>1865</v>
       </c>
       <c r="E218" s="4">
-        <v>2027</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4763,16 +4763,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="C219" s="4">
         <v>47</v>
       </c>
       <c r="D219" s="4">
-        <v>1502</v>
+        <v>1514</v>
       </c>
       <c r="E219" s="4">
-        <v>3101</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4780,16 +4780,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>8695</v>
+        <v>8701</v>
       </c>
       <c r="C220" s="4">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D220" s="4">
-        <v>2508</v>
+        <v>2512</v>
       </c>
       <c r="E220" s="4">
-        <v>11670</v>
+        <v>11681</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4797,16 +4797,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>2998458</v>
+        <v>3007883</v>
       </c>
       <c r="C221" s="4">
-        <v>118410</v>
+        <v>118470</v>
       </c>
       <c r="D221" s="4">
-        <v>656524</v>
+        <v>659269</v>
       </c>
       <c r="E221" s="4">
-        <v>3773392</v>
+        <v>3785622</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4814,16 +4814,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>122641</v>
+        <v>122751</v>
       </c>
       <c r="C222" s="4">
-        <v>4689</v>
+        <v>4692</v>
       </c>
       <c r="D222" s="4">
-        <v>160144</v>
+        <v>161263</v>
       </c>
       <c r="E222" s="4">
-        <v>287474</v>
+        <v>288706</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4831,7 +4831,7 @@
         <v>226</v>
       </c>
       <c r="B223" s="4">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C223" s="4">
         <v>12</v>
@@ -4840,7 +4840,7 @@
         <v>315</v>
       </c>
       <c r="E223" s="4">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="224" ht="14" customHeight="1">
@@ -4848,16 +4848,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>6148</v>
+        <v>6154</v>
       </c>
       <c r="C224" s="4">
         <v>138</v>
       </c>
       <c r="D224" s="4">
-        <v>4426</v>
+        <v>4431</v>
       </c>
       <c r="E224" s="4">
-        <v>10712</v>
+        <v>10723</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4871,10 +4871,10 @@
         <v>57</v>
       </c>
       <c r="D225" s="4">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="E225" s="4">
-        <v>1580</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4882,16 +4882,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>36002</v>
+        <v>36057</v>
       </c>
       <c r="C226" s="4">
         <v>1475</v>
       </c>
       <c r="D226" s="4">
-        <v>10718</v>
+        <v>10819</v>
       </c>
       <c r="E226" s="4">
-        <v>48195</v>
+        <v>48351</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4899,16 +4899,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>104696</v>
+        <v>104821</v>
       </c>
       <c r="C227" s="4">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="D227" s="4">
-        <v>146529</v>
+        <v>147752</v>
       </c>
       <c r="E227" s="4">
-        <v>254516</v>
+        <v>255865</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4916,16 +4916,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>2038781</v>
+        <v>2045192</v>
       </c>
       <c r="C228" s="4">
-        <v>85880</v>
+        <v>85937</v>
       </c>
       <c r="D228" s="4">
-        <v>493180</v>
+        <v>495715</v>
       </c>
       <c r="E228" s="4">
-        <v>2617841</v>
+        <v>2626844</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4933,16 +4933,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>19050</v>
+        <v>19081</v>
       </c>
       <c r="C229" s="4">
         <v>626</v>
       </c>
       <c r="D229" s="4">
-        <v>9020</v>
+        <v>9036</v>
       </c>
       <c r="E229" s="4">
-        <v>28696</v>
+        <v>28743</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4950,16 +4950,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>17310</v>
+        <v>17327</v>
       </c>
       <c r="C230" s="4">
         <v>1121</v>
       </c>
       <c r="D230" s="4">
-        <v>11675</v>
+        <v>11731</v>
       </c>
       <c r="E230" s="4">
-        <v>30106</v>
+        <v>30179</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4967,16 +4967,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>17078</v>
+        <v>17100</v>
       </c>
       <c r="C231" s="4">
         <v>2564</v>
       </c>
       <c r="D231" s="4">
-        <v>10473</v>
+        <v>10514</v>
       </c>
       <c r="E231" s="4">
-        <v>30115</v>
+        <v>30178</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4984,16 +4984,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C232" s="4">
         <v>103</v>
       </c>
       <c r="D232" s="4">
-        <v>4341</v>
+        <v>4382</v>
       </c>
       <c r="E232" s="4">
-        <v>5746</v>
+        <v>5788</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -5001,16 +5001,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>48016</v>
+        <v>48300</v>
       </c>
       <c r="C233" s="4">
         <v>620</v>
       </c>
       <c r="D233" s="4">
-        <v>5340</v>
+        <v>5396</v>
       </c>
       <c r="E233" s="4">
-        <v>53976</v>
+        <v>54316</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5018,16 +5018,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>70406</v>
+        <v>70818</v>
       </c>
       <c r="C234" s="4">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D234" s="4">
-        <v>36435</v>
+        <v>36457</v>
       </c>
       <c r="E234" s="4">
-        <v>108197</v>
+        <v>108632</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5035,16 +5035,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>36105</v>
+        <v>36218</v>
       </c>
       <c r="C235" s="4">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="D235" s="4">
-        <v>23780</v>
+        <v>23873</v>
       </c>
       <c r="E235" s="4">
-        <v>62357</v>
+        <v>62564</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5052,16 +5052,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>79158</v>
+        <v>79350</v>
       </c>
       <c r="C236" s="4">
-        <v>5625</v>
+        <v>5627</v>
       </c>
       <c r="D236" s="4">
-        <v>35221</v>
+        <v>35297</v>
       </c>
       <c r="E236" s="4">
-        <v>120004</v>
+        <v>120274</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5069,16 +5069,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>178226</v>
+        <v>178578</v>
       </c>
       <c r="C237" s="4">
         <v>3349</v>
       </c>
       <c r="D237" s="4">
-        <v>50505</v>
+        <v>50565</v>
       </c>
       <c r="E237" s="4">
-        <v>232080</v>
+        <v>232492</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5086,16 +5086,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>66019</v>
+        <v>66145</v>
       </c>
       <c r="C238" s="4">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="D238" s="4">
-        <v>12735</v>
+        <v>12803</v>
       </c>
       <c r="E238" s="4">
-        <v>81145</v>
+        <v>81340</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5103,16 +5103,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>6243</v>
+        <v>6272</v>
       </c>
       <c r="C239" s="4">
         <v>238</v>
       </c>
       <c r="D239" s="4">
-        <v>2849</v>
+        <v>2978</v>
       </c>
       <c r="E239" s="4">
-        <v>9330</v>
+        <v>9488</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5120,16 +5120,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>58937</v>
+        <v>58991</v>
       </c>
       <c r="C240" s="4">
         <v>2086</v>
       </c>
       <c r="D240" s="4">
-        <v>30515</v>
+        <v>30690</v>
       </c>
       <c r="E240" s="4">
-        <v>91538</v>
+        <v>91767</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5137,16 +5137,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>580883</v>
+        <v>583007</v>
       </c>
       <c r="C241" s="4">
         <v>7184</v>
       </c>
       <c r="D241" s="4">
-        <v>156361</v>
+        <v>156791</v>
       </c>
       <c r="E241" s="4">
-        <v>744428</v>
+        <v>746982</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5154,16 +5154,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>51776</v>
+        <v>51875</v>
       </c>
       <c r="C242" s="4">
         <v>2636</v>
       </c>
       <c r="D242" s="4">
-        <v>16885</v>
+        <v>16949</v>
       </c>
       <c r="E242" s="4">
-        <v>71297</v>
+        <v>71460</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5171,16 +5171,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>2632</v>
+        <v>2640</v>
       </c>
       <c r="C243" s="4">
         <v>535</v>
       </c>
       <c r="D243" s="4">
-        <v>5127</v>
+        <v>5134</v>
       </c>
       <c r="E243" s="4">
-        <v>8294</v>
+        <v>8309</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5188,16 +5188,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>166086</v>
+        <v>166502</v>
       </c>
       <c r="C244" s="4">
-        <v>12007</v>
+        <v>12031</v>
       </c>
       <c r="D244" s="4">
-        <v>81452</v>
+        <v>81828</v>
       </c>
       <c r="E244" s="4">
-        <v>259545</v>
+        <v>260361</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5205,16 +5205,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>19576</v>
+        <v>19598</v>
       </c>
       <c r="C245" s="4">
         <v>855</v>
       </c>
       <c r="D245" s="4">
-        <v>33279</v>
+        <v>33628</v>
       </c>
       <c r="E245" s="4">
-        <v>53710</v>
+        <v>54081</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5222,16 +5222,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>52069</v>
+        <v>52542</v>
       </c>
       <c r="C246" s="4">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D246" s="4">
-        <v>9492</v>
+        <v>9649</v>
       </c>
       <c r="E246" s="4">
-        <v>61812</v>
+        <v>62444</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5239,16 +5239,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>892531</v>
+        <v>896083</v>
       </c>
       <c r="C247" s="4">
-        <v>37872</v>
+        <v>37897</v>
       </c>
       <c r="D247" s="4">
-        <v>229135</v>
+        <v>230209</v>
       </c>
       <c r="E247" s="4">
-        <v>1159538</v>
+        <v>1164189</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5256,16 +5256,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>56666</v>
+        <v>56806</v>
       </c>
       <c r="C248" s="4">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="D248" s="4">
-        <v>25862</v>
+        <v>25922</v>
       </c>
       <c r="E248" s="4">
-        <v>84150</v>
+        <v>84352</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5273,16 +5273,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>2034</v>
+        <v>2049</v>
       </c>
       <c r="C249" s="4">
         <v>75</v>
       </c>
       <c r="D249" s="4">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="E249" s="4">
-        <v>2958</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5290,16 +5290,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>80759</v>
+        <v>80986</v>
       </c>
       <c r="C250" s="4">
-        <v>4126</v>
+        <v>4131</v>
       </c>
       <c r="D250" s="4">
-        <v>18269</v>
+        <v>18362</v>
       </c>
       <c r="E250" s="4">
-        <v>103154</v>
+        <v>103479</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5307,16 +5307,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>31182</v>
+        <v>31285</v>
       </c>
       <c r="C251" s="4">
-        <v>2443</v>
+        <v>2446</v>
       </c>
       <c r="D251" s="4">
-        <v>20150</v>
+        <v>20250</v>
       </c>
       <c r="E251" s="4">
-        <v>53775</v>
+        <v>53981</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5324,16 +5324,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>3080</v>
+        <v>3083</v>
       </c>
       <c r="C252" s="4">
         <v>175</v>
       </c>
       <c r="D252" s="4">
-        <v>2493</v>
+        <v>2495</v>
       </c>
       <c r="E252" s="4">
-        <v>5748</v>
+        <v>5753</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5341,16 +5341,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>11876</v>
+        <v>11913</v>
       </c>
       <c r="C253" s="4">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="D253" s="4">
-        <v>6857</v>
+        <v>6873</v>
       </c>
       <c r="E253" s="4">
-        <v>19447</v>
+        <v>19504</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5358,16 +5358,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>18858</v>
+        <v>18866</v>
       </c>
       <c r="C254" s="4">
         <v>164</v>
       </c>
       <c r="D254" s="4">
-        <v>18496</v>
+        <v>18520</v>
       </c>
       <c r="E254" s="4">
-        <v>37518</v>
+        <v>37550</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5375,16 +5375,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>15550</v>
+        <v>15597</v>
       </c>
       <c r="C255" s="4">
         <v>271</v>
       </c>
       <c r="D255" s="4">
-        <v>3095</v>
+        <v>3120</v>
       </c>
       <c r="E255" s="4">
-        <v>18916</v>
+        <v>18988</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5392,16 +5392,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>346906</v>
+        <v>348730</v>
       </c>
       <c r="C256" s="4">
-        <v>14463</v>
+        <v>14469</v>
       </c>
       <c r="D256" s="4">
-        <v>17852</v>
+        <v>17891</v>
       </c>
       <c r="E256" s="4">
-        <v>379221</v>
+        <v>381090</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5409,16 +5409,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>42976713</v>
+        <v>43115900</v>
       </c>
       <c r="C257" s="4">
-        <v>1769315</v>
+        <v>1772578</v>
       </c>
       <c r="D257" s="4">
-        <v>11272364</v>
+        <v>11326554</v>
       </c>
       <c r="E257" s="4">
-        <v>56018392</v>
+        <v>56215032</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
